--- a/Other/Visualizations.xlsx
+++ b/Other/Visualizations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johniselin/finesandfees_baltimore/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39769DCC-23FB-BC42-B5B6-500FAEAF0B99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82D8936-3385-0F4C-94F5-690A56FDB08B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{AC06BCB9-FE18-484C-915C-ADBD4991FCE1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="3" xr2:uid="{AC06BCB9-FE18-484C-915C-ADBD4991FCE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue" sheetId="1" r:id="rId1"/>
@@ -22,50 +22,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Top Fines Fees'!$A$1:$C$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'BPD Race'!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'BPD Race'!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'BPD Race'!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'BPD Race'!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'BPD Race'!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'BPD Race'!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'BPD Race'!$C$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'BPD Race'!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'BPD Race'!$D$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'BPD Race'!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'BPD Race'!$E$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'BPD Race'!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'BPD Race'!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'BPD Race'!$F$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'BPD Race'!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'BPD Race'!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'BPD Race'!$B$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'BPD Race'!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'BPD Race'!$C$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'BPD Race'!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'BPD Race'!$D$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'BPD Race'!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'BPD Race'!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'BPD Race'!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'BPD Race'!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'BPD Race'!$F$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'BPD Race'!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'BPD Race'!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'BPD Race'!$B$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'BPD Race'!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'BPD Race'!$C$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'BPD Race'!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'BPD Race'!$D$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'BPD Race'!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'BPD Race'!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'BPD Race'!$E$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'BPD Race'!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'BPD Race'!$F$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'BPD Race'!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'BPD Race'!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'BPD Race'!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'BPD Race'!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'BPD Race'!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'BPD Race'!$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>Revenue</t>
   </si>
@@ -179,18 +135,6 @@
   </si>
   <si>
     <t>ECB Fines - Neighborhood Share of Black Residents</t>
-  </si>
-  <si>
-    <t>ECB Citations by Share-Black Quintile</t>
-  </si>
-  <si>
-    <t>Percentage Share of Black Residents in Neighborhoods</t>
-  </si>
-  <si>
-    <t>Fine Amount</t>
-  </si>
-  <si>
-    <t>Amount Paid</t>
   </si>
   <si>
     <t>Failed To Abate Unsafe Structure Notice And Order</t>
@@ -363,22 +307,21 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1605,22 +1548,22 @@
             <c:numRef>
               <c:f>'ECB Black'!$B$3:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4975</c:v>
+                  <c:v>5030</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4605</c:v>
+                  <c:v>5242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4803</c:v>
+                  <c:v>5905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7258</c:v>
+                  <c:v>8786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9081</c:v>
+                  <c:v>9173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,22 +2003,22 @@
             <c:numRef>
               <c:f>'ECB Black'!$C$3:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>550800</c:v>
+                  <c:v>558650</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>566350</c:v>
+                  <c:v>640950</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>593200</c:v>
+                  <c:v>744350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1029750</c:v>
+                  <c:v>1193900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2012950</c:v>
+                  <c:v>2023550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2899,7 +2842,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Asian</c:v>
+                  <c:v>Black</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2973,19 +2916,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
+                  <c:v>29139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>20309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>18903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>19092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>17267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3005,7 +2948,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Black</c:v>
+                  <c:v>White</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3079,19 +3022,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29139</c:v>
+                  <c:v>6089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20309</c:v>
+                  <c:v>4145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18903</c:v>
+                  <c:v>3389</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19092</c:v>
+                  <c:v>3253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17267</c:v>
+                  <c:v>3162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3111,7 +3054,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other</c:v>
+                  <c:v>Unknown</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3185,19 +3128,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,7 +3160,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unknown</c:v>
+                  <c:v>Asian</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3291,19 +3234,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>714</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>513</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>426</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>415</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3323,7 +3266,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3397,19 +3340,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6089</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4145</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3389</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3253</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3162</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3692,7 +3635,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Asian</c:v>
+                  <c:v>Black</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3766,19 +3709,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>4383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>2870</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>2865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>2865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3798,7 +3741,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Black</c:v>
+                  <c:v>White</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3872,19 +3815,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4383</c:v>
+                  <c:v>1117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3216</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2870</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2865</c:v>
+                  <c:v>744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2865</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3904,7 +3847,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other</c:v>
+                  <c:v>Unknown</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3978,19 +3921,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4010,7 +3953,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unknown</c:v>
+                  <c:v>Asian</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4084,19 +4027,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>114</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4116,7 +4059,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>White</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4190,19 +4133,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1117</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>880</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>735</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>744</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>877</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9086,16 +9029,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>153457</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>166863</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>379234</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>458257</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>195086</xdr:rowOff>
+      <xdr:colOff>6701</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>183445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9122,16 +9065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>395112</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28222</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>22578</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>70556</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9206,16 +9149,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9244,16 +9187,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9582,7 +9525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8F5782-123C-4EC5-992D-4FE674321060}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -9852,38 +9795,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>2018</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>1000000</v>
       </c>
       <c r="F2">
@@ -9898,13 +9841,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>2018</v>
@@ -9924,13 +9867,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>2018</v>
@@ -9950,10 +9893,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>2018</v>
@@ -9973,10 +9916,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>2018</v>
@@ -9996,10 +9939,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>2018</v>
@@ -10019,10 +9962,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>2018</v>
@@ -10042,10 +9985,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>2018</v>
@@ -10065,10 +10008,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>2018</v>
@@ -10088,10 +10031,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -10117,10 +10060,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14431516-6E5C-4050-9619-4CD96412AF01}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10151,13 +10094,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="6">
-        <v>4975</v>
-      </c>
-      <c r="C3" s="5">
-        <v>550800</v>
+        <v>48</v>
+      </c>
+      <c r="B3" s="13">
+        <v>5030</v>
+      </c>
+      <c r="C3" s="13">
+        <v>558650</v>
       </c>
       <c r="D3">
         <v>111</v>
@@ -10165,13 +10108,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="6">
-        <v>4605</v>
-      </c>
-      <c r="C4" s="5">
-        <v>566350</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="13">
+        <v>5242</v>
+      </c>
+      <c r="C4" s="13">
+        <v>640950</v>
       </c>
       <c r="D4">
         <v>123</v>
@@ -10179,13 +10122,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4803</v>
-      </c>
-      <c r="C5" s="5">
-        <v>593200</v>
+        <v>50</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5905</v>
+      </c>
+      <c r="C5" s="13">
+        <v>744350</v>
       </c>
       <c r="D5">
         <v>124</v>
@@ -10193,13 +10136,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="6">
-        <v>7258</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1029750</v>
+        <v>51</v>
+      </c>
+      <c r="B6" s="13">
+        <v>8786</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1193900</v>
       </c>
       <c r="D6">
         <v>142</v>
@@ -10207,113 +10150,83 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="6">
-        <v>9081</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2012950</v>
+        <v>52</v>
+      </c>
+      <c r="B7" s="13">
+        <v>9173</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2023550</v>
       </c>
       <c r="D7">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="7">
-        <v>599350</v>
-      </c>
-      <c r="C13" s="7">
-        <v>345389</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="7">
-        <v>605500</v>
-      </c>
-      <c r="C14" s="7">
-        <v>324022</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>705800</v>
-      </c>
-      <c r="C15" s="7">
-        <v>364633</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1232850</v>
-      </c>
-      <c r="C16" s="7">
-        <v>553146</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2063600</v>
-      </c>
-      <c r="C17" s="7">
-        <v>633000</v>
-      </c>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10340,10 +10253,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -10352,37 +10265,37 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2003</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>1569000000</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>63731094</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>27452342</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <f>B2+C2+D2</f>
         <v>1660183436</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <f>C2/E2</f>
         <v>3.8387983290299493E-2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <f>D2/B2</f>
         <v>1.7496712555768006E-2</v>
       </c>
@@ -10391,24 +10304,24 @@
       <c r="A3">
         <v>2004</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>1618000000</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>72780102</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>30875724</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <f t="shared" ref="E3:E17" si="0">B3+C3+D3</f>
         <v>1721655826</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <f t="shared" ref="F3:F17" si="1">C3/E3</f>
         <v>4.2273316711095077E-2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G17" si="2">D3/B3</f>
         <v>1.9082647713226205E-2</v>
       </c>
@@ -10417,24 +10330,24 @@
       <c r="A4">
         <v>2005</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1760000000</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>73718109</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>20922356</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>1854640465</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <f t="shared" si="1"/>
         <v>3.9747924404313045E-2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <f t="shared" si="2"/>
         <v>1.1887702272727273E-2</v>
       </c>
@@ -10443,24 +10356,24 @@
       <c r="A5">
         <v>2006</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>1918000000</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>79726545</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>24022089</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>2021748634</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <f t="shared" si="1"/>
         <v>3.9434449792238611E-2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <f t="shared" si="2"/>
         <v>1.252455109489051E-2</v>
       </c>
@@ -10469,24 +10382,24 @@
       <c r="A6">
         <v>2007</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1988000000</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>84005502</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>21604703</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>2093610205</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
         <v>4.012470984301493E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f t="shared" si="2"/>
         <v>1.0867556841046278E-2</v>
       </c>
@@ -10495,24 +10408,24 @@
       <c r="A7">
         <v>2008</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>2043000000</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>84890685</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>29689313</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>2157579998</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
         <v>3.9345324427687803E-2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <f t="shared" si="2"/>
         <v>1.4532213901125796E-2</v>
       </c>
@@ -10521,24 +10434,24 @@
       <c r="A8">
         <v>2009</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>2033000000</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>81477080</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>31053824</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>2145530904</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
         <v>3.7975253513290806E-2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <f t="shared" si="2"/>
         <v>1.5274876537137235E-2</v>
       </c>
@@ -10547,24 +10460,24 @@
       <c r="A9">
         <v>2010</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>1971000000</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>82644414</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>35720601</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>2089365015</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
         <v>3.9554799380040355E-2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <f t="shared" si="2"/>
         <v>1.8123085235920853E-2</v>
       </c>
@@ -10573,24 +10486,24 @@
       <c r="A10">
         <v>2011</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>1944000000</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>93119344</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>49447475</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>2086566819</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
         <v>4.4628019171045773E-2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <f t="shared" si="2"/>
         <v>2.5435943930041151E-2</v>
       </c>
@@ -10599,24 +10512,24 @@
       <c r="A11">
         <v>2012</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>1986000000</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>98962323</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>55617825</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>2140580148</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
         <v>4.623154292655806E-2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <f t="shared" si="2"/>
         <v>2.8004947129909367E-2</v>
       </c>
@@ -10625,24 +10538,24 @@
       <c r="A12">
         <v>2013</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>1908000000</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>77998504</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>35961083</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>2021959587</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
         <v>3.8575698793133197E-2</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <f t="shared" si="2"/>
         <v>1.8847527777777779E-2</v>
       </c>
@@ -10651,24 +10564,24 @@
       <c r="A13">
         <v>2014</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>2020000000</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>107600000</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>21264571</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>2148864571</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <f t="shared" si="1"/>
         <v>5.0072955481753348E-2</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <f t="shared" si="2"/>
         <v>1.0527015346534654E-2</v>
       </c>
@@ -10677,24 +10590,24 @@
       <c r="A14">
         <v>2015</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>2047000000</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>111400000</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>21910978</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>2180310978</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <f t="shared" si="1"/>
         <v>5.1093628901592407E-2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <f t="shared" si="2"/>
         <v>1.0703946262823644E-2</v>
       </c>
@@ -10703,24 +10616,24 @@
       <c r="A15">
         <v>2016</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>2294000000</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>113500000</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>14942803</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>2422442803</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <f t="shared" si="1"/>
         <v>4.6853531426805789E-2</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <f t="shared" si="2"/>
         <v>6.5138635571054928E-3</v>
       </c>
@@ -10729,24 +10642,24 @@
       <c r="A16">
         <v>2017</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>2155000000</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>121400000</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>16565663</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>2292965663</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <f t="shared" si="1"/>
         <v>5.2944534651760286E-2</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <f t="shared" si="2"/>
         <v>7.6870825986078885E-3</v>
       </c>
@@ -10755,24 +10668,24 @@
       <c r="A17">
         <v>2018</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>2332000000</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>116400000</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>29436089</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>2477836089</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <f t="shared" si="1"/>
         <v>4.6976472946189299E-2</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <f t="shared" si="2"/>
         <v>1.2622679674099486E-2</v>
       </c>
@@ -10787,30 +10700,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2043E6C-06D4-4F43-8875-FC51D2B0727A}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -10818,19 +10731,19 @@
         <v>2014</v>
       </c>
       <c r="B2">
+        <v>29139</v>
+      </c>
+      <c r="C2">
+        <v>6089</v>
+      </c>
+      <c r="D2">
+        <v>714</v>
+      </c>
+      <c r="E2">
         <v>108</v>
       </c>
-      <c r="C2">
-        <v>29139</v>
-      </c>
-      <c r="D2">
+      <c r="F2">
         <v>90</v>
-      </c>
-      <c r="E2">
-        <v>714</v>
-      </c>
-      <c r="F2">
-        <v>6089</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -10838,19 +10751,19 @@
         <v>2015</v>
       </c>
       <c r="B3">
+        <v>20309</v>
+      </c>
+      <c r="C3">
+        <v>4145</v>
+      </c>
+      <c r="D3">
+        <v>513</v>
+      </c>
+      <c r="E3">
         <v>70</v>
       </c>
-      <c r="C3">
-        <v>20309</v>
-      </c>
-      <c r="D3">
+      <c r="F3">
         <v>126</v>
-      </c>
-      <c r="E3">
-        <v>513</v>
-      </c>
-      <c r="F3">
-        <v>4145</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -10858,19 +10771,19 @@
         <v>2016</v>
       </c>
       <c r="B4">
+        <v>18903</v>
+      </c>
+      <c r="C4">
+        <v>3389</v>
+      </c>
+      <c r="D4">
+        <v>490</v>
+      </c>
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="C4">
-        <v>18903</v>
-      </c>
-      <c r="D4">
+      <c r="F4">
         <v>51</v>
-      </c>
-      <c r="E4">
-        <v>490</v>
-      </c>
-      <c r="F4">
-        <v>3389</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -10878,19 +10791,19 @@
         <v>2017</v>
       </c>
       <c r="B5">
+        <v>19092</v>
+      </c>
+      <c r="C5">
+        <v>3253</v>
+      </c>
+      <c r="D5">
+        <v>426</v>
+      </c>
+      <c r="E5">
         <v>60</v>
       </c>
-      <c r="C5">
-        <v>19092</v>
-      </c>
-      <c r="D5">
+      <c r="F5">
         <v>54</v>
-      </c>
-      <c r="E5">
-        <v>426</v>
-      </c>
-      <c r="F5">
-        <v>3253</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -10898,19 +10811,19 @@
         <v>2018</v>
       </c>
       <c r="B6">
+        <v>17267</v>
+      </c>
+      <c r="C6">
+        <v>3162</v>
+      </c>
+      <c r="D6">
+        <v>415</v>
+      </c>
+      <c r="E6">
         <v>43</v>
       </c>
-      <c r="C6">
-        <v>17267</v>
-      </c>
-      <c r="D6">
+      <c r="F6">
         <v>56</v>
-      </c>
-      <c r="E6">
-        <v>415</v>
-      </c>
-      <c r="F6">
-        <v>3162</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -10918,39 +10831,39 @@
         <v>2019</v>
       </c>
       <c r="B7">
+        <v>2704</v>
+      </c>
+      <c r="C7">
+        <v>477</v>
+      </c>
+      <c r="D7">
+        <v>83</v>
+      </c>
+      <c r="E7">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>2704</v>
-      </c>
-      <c r="D7">
+      <c r="F7">
         <v>3</v>
-      </c>
-      <c r="E7">
-        <v>83</v>
-      </c>
-      <c r="F7">
-        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -10958,19 +10871,19 @@
         <v>2014</v>
       </c>
       <c r="B12">
+        <v>4383</v>
+      </c>
+      <c r="C12">
+        <v>1117</v>
+      </c>
+      <c r="D12">
+        <v>114</v>
+      </c>
+      <c r="E12">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>4383</v>
-      </c>
-      <c r="D12">
+      <c r="F12">
         <v>17</v>
-      </c>
-      <c r="E12">
-        <v>114</v>
-      </c>
-      <c r="F12">
-        <v>1117</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -10978,19 +10891,19 @@
         <v>2015</v>
       </c>
       <c r="B13">
+        <v>3216</v>
+      </c>
+      <c r="C13">
+        <v>880</v>
+      </c>
+      <c r="D13">
+        <v>85</v>
+      </c>
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>3216</v>
-      </c>
-      <c r="D13">
+      <c r="F13">
         <v>24</v>
-      </c>
-      <c r="E13">
-        <v>85</v>
-      </c>
-      <c r="F13">
-        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -10998,19 +10911,19 @@
         <v>2016</v>
       </c>
       <c r="B14">
+        <v>2870</v>
+      </c>
+      <c r="C14">
+        <v>735</v>
+      </c>
+      <c r="D14">
+        <v>74</v>
+      </c>
+      <c r="E14">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>2870</v>
-      </c>
-      <c r="D14">
+      <c r="F14">
         <v>12</v>
-      </c>
-      <c r="E14">
-        <v>74</v>
-      </c>
-      <c r="F14">
-        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -11018,19 +10931,19 @@
         <v>2017</v>
       </c>
       <c r="B15">
+        <v>2865</v>
+      </c>
+      <c r="C15">
+        <v>744</v>
+      </c>
+      <c r="D15">
+        <v>57</v>
+      </c>
+      <c r="E15">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>2865</v>
-      </c>
-      <c r="D15">
+      <c r="F15">
         <v>4</v>
-      </c>
-      <c r="E15">
-        <v>57</v>
-      </c>
-      <c r="F15">
-        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -11038,36 +10951,36 @@
         <v>2018</v>
       </c>
       <c r="B16">
+        <v>2865</v>
+      </c>
+      <c r="C16">
+        <v>877</v>
+      </c>
+      <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16">
         <v>12</v>
       </c>
-      <c r="C16">
-        <v>2865</v>
-      </c>
-      <c r="D16">
+      <c r="F16">
         <v>14</v>
       </c>
-      <c r="E16">
-        <v>64</v>
-      </c>
-      <c r="F16">
-        <v>877</v>
-      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2019</v>
       </c>
       <c r="B17">
+        <v>491</v>
+      </c>
+      <c r="C17">
+        <v>118</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
         <v>1</v>
-      </c>
-      <c r="C17">
-        <v>491</v>
-      </c>
-      <c r="E17">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
